--- a/option_Analysis.xlsx
+++ b/option_Analysis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7359,6 +7359,7034 @@
         <v>-0.038253</v>
       </c>
     </row>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>160.74</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1371</v>
+      </c>
+      <c r="J127" t="n">
+        <v>11</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>GRRR250801P00019500</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>-0.6843</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.119214</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-0.130588</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>19</v>
+      </c>
+      <c r="H128" t="n">
+        <v>122.85</v>
+      </c>
+      <c r="I128" t="n">
+        <v>250</v>
+      </c>
+      <c r="J128" t="n">
+        <v>74</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>GRRR250801C00019000</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>0.3186</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.156593</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-0.102429</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>18</v>
+      </c>
+      <c r="H129" t="n">
+        <v>113.09</v>
+      </c>
+      <c r="I129" t="n">
+        <v>150</v>
+      </c>
+      <c r="J129" t="n">
+        <v>166</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>GRRR250801P00018000</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.5264</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.189704</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.102999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>21</v>
+      </c>
+      <c r="H130" t="n">
+        <v>141.02</v>
+      </c>
+      <c r="I130" t="n">
+        <v>143</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1004</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>GRRR250801C00021000</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>0.1421</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.085921</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-0.073854</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>17</v>
+      </c>
+      <c r="H131" t="n">
+        <v>100.39</v>
+      </c>
+      <c r="I131" t="n">
+        <v>124</v>
+      </c>
+      <c r="J131" t="n">
+        <v>192</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>GRRR250801P00017000</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.3245</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.193091</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.082908</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>24</v>
+      </c>
+      <c r="H132" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="I132" t="n">
+        <v>107</v>
+      </c>
+      <c r="J132" t="n">
+        <v>110</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>GRRR250801C00024000</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.042224</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.068399</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>19</v>
+      </c>
+      <c r="H133" t="n">
+        <v>128.71</v>
+      </c>
+      <c r="I133" t="n">
+        <v>102</v>
+      </c>
+      <c r="J133" t="n">
+        <v>75</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>GRRR250801P00019000</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>-0.6715</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.151356</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-0.106045</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>219.53</v>
+      </c>
+      <c r="I134" t="n">
+        <v>97</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>GRRR250801C00025500</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.033474</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.069589</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>18</v>
+      </c>
+      <c r="H135" t="n">
+        <v>113.09</v>
+      </c>
+      <c r="I135" t="n">
+        <v>93</v>
+      </c>
+      <c r="J135" t="n">
+        <v>84</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>GRRR250801C00018000</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4736</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.189704</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.105463</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>85</v>
+      </c>
+      <c r="J136" t="n">
+        <v>86</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>GRRR250801P00018500</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>-0.6304999999999999</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.195379</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.08942799999999999</v>
+      </c>
+    </row>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>155.08</v>
+      </c>
+      <c r="I138" t="n">
+        <v>70</v>
+      </c>
+      <c r="J138" t="n">
+        <v>997</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>GRRR250808C00023000</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.059366</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-0.061874</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>121.68</v>
+      </c>
+      <c r="I139" t="n">
+        <v>37</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>GRRR250808C00017500</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>0.5688</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.104963</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.06804499999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>18</v>
+      </c>
+      <c r="H140" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="I140" t="n">
+        <v>33</v>
+      </c>
+      <c r="J140" t="n">
+        <v>33</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>GRRR250808C00018000</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.117248</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-0.062733</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>142.58</v>
+      </c>
+      <c r="I141" t="n">
+        <v>32</v>
+      </c>
+      <c r="J141" t="n">
+        <v>37</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>GRRR250808P00017500</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.089448</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-0.076998</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>20</v>
+      </c>
+      <c r="H142" t="n">
+        <v>140.23</v>
+      </c>
+      <c r="I142" t="n">
+        <v>25</v>
+      </c>
+      <c r="J142" t="n">
+        <v>152</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>GRRR250808C00020000</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>0.3564</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.086396</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-0.073863</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>20</v>
+      </c>
+      <c r="H143" t="n">
+        <v>128.32</v>
+      </c>
+      <c r="I143" t="n">
+        <v>25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>35</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>GRRR250808P00020000</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>-0.6642</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.092353</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.06342</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>18</v>
+      </c>
+      <c r="H144" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="I144" t="n">
+        <v>13</v>
+      </c>
+      <c r="J144" t="n">
+        <v>50</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>GRRR250808P00018000</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>-0.4851</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.108037</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-0.06547</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>16</v>
+      </c>
+      <c r="H145" t="n">
+        <v>108.01</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>GRRR250808P00016000</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>-0.2585</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.097315</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-0.048153</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>21</v>
+      </c>
+      <c r="H146" t="n">
+        <v>158.79</v>
+      </c>
+      <c r="I146" t="n">
+        <v>10</v>
+      </c>
+      <c r="J146" t="n">
+        <v>102</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>GRRR250808C00021000</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.073051</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-0.079925</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>168.75</v>
+      </c>
+      <c r="I147" t="n">
+        <v>10</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>GRRR250808C00020500</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>0.3651</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.072394</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-0.089458</v>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>20</v>
+      </c>
+      <c r="H149" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="I149" t="n">
+        <v>359</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3394</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>GRRR250815C00020000</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>0.3908</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.07664600000000001</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-0.054197</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>35</v>
+      </c>
+      <c r="H150" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="I150" t="n">
+        <v>178</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1443</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>GRRR250815C00035000</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>0.0868</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.020735</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-0.033674</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>30</v>
+      </c>
+      <c r="H151" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="I151" t="n">
+        <v>61</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2041</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>GRRR250815C00030000</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.027702</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-0.031465</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>45</v>
+      </c>
+      <c r="H152" t="n">
+        <v>229.69</v>
+      </c>
+      <c r="I152" t="n">
+        <v>40</v>
+      </c>
+      <c r="J152" t="n">
+        <v>344</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>GRRR250815C00045000</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.012932</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-0.02948</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>50</v>
+      </c>
+      <c r="H153" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>36</v>
+      </c>
+      <c r="J153" t="n">
+        <v>908</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>GRRR250815C00050000</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.009584000000000001</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-0.022515</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>25</v>
+      </c>
+      <c r="H154" t="n">
+        <v>144.92</v>
+      </c>
+      <c r="I154" t="n">
+        <v>34</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2042</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>GRRR250815C00025000</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>0.1841</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.046645</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-0.042541</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>110.35</v>
+      </c>
+      <c r="I155" t="n">
+        <v>27</v>
+      </c>
+      <c r="J155" t="n">
+        <v>356</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>GRRR250815C00017500</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>0.5733</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.090291</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-0.048459</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>15</v>
+      </c>
+      <c r="H156" t="n">
+        <v>116.02</v>
+      </c>
+      <c r="I156" t="n">
+        <v>20</v>
+      </c>
+      <c r="J156" t="n">
+        <v>664</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>GRRR250815C00015000</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>0.7842</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.06413000000000001</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-0.038587</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>60</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>20</v>
+      </c>
+      <c r="J157" t="n">
+        <v>68</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>GRRR250815P00060000</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.008199</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>21</v>
+      </c>
+      <c r="H158" t="n">
+        <v>111.23</v>
+      </c>
+      <c r="I158" t="n">
+        <v>17</v>
+      </c>
+      <c r="J158" t="n">
+        <v>311</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>GRRR250815C00021000</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.07820299999999999</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-0.042249</v>
+      </c>
+    </row>
+    <row r="159"/>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H160" t="n">
+        <v>146.68</v>
+      </c>
+      <c r="I160" t="n">
+        <v>55</v>
+      </c>
+      <c r="J160" t="n">
+        <v>89</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>GRRR250822C00026500</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>0.1986</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.040966</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-0.038328</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>18</v>
+      </c>
+      <c r="H161" t="n">
+        <v>111.82</v>
+      </c>
+      <c r="I161" t="n">
+        <v>30</v>
+      </c>
+      <c r="J161" t="n">
+        <v>550</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>GRRR250822C00018000</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.076486</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-0.042203</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>24</v>
+      </c>
+      <c r="H162" t="n">
+        <v>132.62</v>
+      </c>
+      <c r="I162" t="n">
+        <v>21</v>
+      </c>
+      <c r="J162" t="n">
+        <v>21</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>GRRR250822C00024000</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>0.2452</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.051117</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-0.039183</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H163" t="n">
+        <v>110.84</v>
+      </c>
+      <c r="I163" t="n">
+        <v>16</v>
+      </c>
+      <c r="J163" t="n">
+        <v>25</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>GRRR250822C00017500</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.07604</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-0.041315</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>29</v>
+      </c>
+      <c r="H164" t="n">
+        <v>153.91</v>
+      </c>
+      <c r="I164" t="n">
+        <v>6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>GRRR250822C00029000</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>0.1557</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.033473</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-0.034434</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>30</v>
+      </c>
+      <c r="H165" t="n">
+        <v>168.75</v>
+      </c>
+      <c r="I165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J165" t="n">
+        <v>73</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>GRRR250822C00030000</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>0.1678</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.032056</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-0.039614</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>12</v>
+      </c>
+      <c r="H166" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>GRRR250822C00012000</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>0.9512</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.022166</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-0.01075</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>25</v>
+      </c>
+      <c r="H167" t="n">
+        <v>159.77</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5</v>
+      </c>
+      <c r="J167" t="n">
+        <v>73</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>GRRR250822C00025000</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>0.2725</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.04482</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-0.04976</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H168" t="n">
+        <v>146.19</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>GRRR250822C00022500</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.053788</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-0.05012</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>GRRR</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Gorilla Technology Group Inc.</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>137.79</v>
+      </c>
+      <c r="I169" t="n">
+        <v>5</v>
+      </c>
+      <c r="J169" t="n">
+        <v>234</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>GRRR250822C00021500</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>0.3648</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.058795</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-0.048749</v>
+      </c>
+    </row>
+    <row r="170"/>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H171" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="I171" t="n">
+        <v>445</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2944</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>HIVE250801C00002500</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>0.2732</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.029566</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-0.013508</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>164.06</v>
+      </c>
+      <c r="I172" t="n">
+        <v>171</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1615</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>HIVE250801P00002000</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>-0.2043</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.727278</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-0.013748</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="I173" t="n">
+        <v>123</v>
+      </c>
+      <c r="J173" t="n">
+        <v>551</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>HIVE250801C00002000</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.380888</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-0.001316</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>3</v>
+      </c>
+      <c r="H174" t="n">
+        <v>165.63</v>
+      </c>
+      <c r="I174" t="n">
+        <v>66</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3869</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>HIVE250801C00003000</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.320099</v>
+      </c>
+      <c r="O174" t="n">
+        <v>-0.006217</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H175" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="I175" t="n">
+        <v>50</v>
+      </c>
+      <c r="J175" t="n">
+        <v>314</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>HIVE250801P00002500</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>-0.7356</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.049034</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-0.01249</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H176" t="n">
+        <v>228.13</v>
+      </c>
+      <c r="I176" t="n">
+        <v>13</v>
+      </c>
+      <c r="J176" t="n">
+        <v>86</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>HIVE250801C00003500</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.176048</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-0.00648</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1575</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10</v>
+      </c>
+      <c r="J177" t="n">
+        <v>16</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>HIVE250801C00001500</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.059746</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-0.104674</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1912.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>HIVE250801C00001000</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>0.9208</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.03245</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-0.083818</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2825</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>HIVE250801C00000500</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>0.9767</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.008196999999999999</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-0.04619</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>762.5</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>HIVE250801P00000500</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>-0.0109</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.015808</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-0.006483</v>
+      </c>
+    </row>
+    <row r="181"/>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H182" t="n">
+        <v>139.06</v>
+      </c>
+      <c r="I182" t="n">
+        <v>337</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1123</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>HIVE250808C00002500</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>0.3925</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.701391</v>
+      </c>
+      <c r="O182" t="n">
+        <v>-0.009678000000000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="n">
+        <v>129.69</v>
+      </c>
+      <c r="I183" t="n">
+        <v>202</v>
+      </c>
+      <c r="J183" t="n">
+        <v>41</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>HIVE250808P00002000</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>-0.2477</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="O183" t="n">
+        <v>-0.007257</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>3</v>
+      </c>
+      <c r="H184" t="n">
+        <v>159.38</v>
+      </c>
+      <c r="I184" t="n">
+        <v>61</v>
+      </c>
+      <c r="J184" t="n">
+        <v>641</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>HIVE250808C00003000</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>0.1938</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.43733</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-0.007893000000000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>104.69</v>
+      </c>
+      <c r="I185" t="n">
+        <v>60</v>
+      </c>
+      <c r="J185" t="n">
+        <v>124</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>HIVE250808P00002500</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>-0.6671</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.880916</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-0.006565</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>476.56</v>
+      </c>
+      <c r="I186" t="n">
+        <v>54</v>
+      </c>
+      <c r="J186" t="n">
+        <v>54</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>HIVE250808C00004500</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.195172</v>
+      </c>
+      <c r="O186" t="n">
+        <v>-0.031355</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+      <c r="H187" t="n">
+        <v>185.16</v>
+      </c>
+      <c r="I187" t="n">
+        <v>16</v>
+      </c>
+      <c r="J187" t="n">
+        <v>97</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>HIVE250808C00002000</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.467576</v>
+      </c>
+      <c r="O187" t="n">
+        <v>-0.011478</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>846.88</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>HIVE250808C00001500</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>0.8456</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.071205</v>
+      </c>
+      <c r="O188" t="n">
+        <v>-0.036115</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1040.63</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>21</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>HIVE250808C00001000</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>0.9127</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.038695</v>
+      </c>
+      <c r="O189" t="n">
+        <v>-0.029623</v>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
+      <c r="H191" t="n">
+        <v>128.91</v>
+      </c>
+      <c r="I191" t="n">
+        <v>337</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5902</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>HIVE250815C00003000</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>0.2055</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.437814</v>
+      </c>
+      <c r="O191" t="n">
+        <v>-0.00519</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="I192" t="n">
+        <v>285</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>HIVE250815C00002000</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>0.7186</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.492448</v>
+      </c>
+      <c r="O192" t="n">
+        <v>-0.00659</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>230.47</v>
+      </c>
+      <c r="I193" t="n">
+        <v>210</v>
+      </c>
+      <c r="J193" t="n">
+        <v>959</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>HIVE250815C00002500</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.342493</v>
+      </c>
+      <c r="O193" t="n">
+        <v>-0.012954</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="I194" t="n">
+        <v>37</v>
+      </c>
+      <c r="J194" t="n">
+        <v>126</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>HIVE250815P00002500</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>-0.6048</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.698456</v>
+      </c>
+      <c r="O194" t="n">
+        <v>-0.005661</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H195" t="n">
+        <v>189.06</v>
+      </c>
+      <c r="I195" t="n">
+        <v>28</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>HIVE250815P00001500</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>-0.1146</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.203111</v>
+      </c>
+      <c r="O195" t="n">
+        <v>-0.00508</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+      <c r="H196" t="n">
+        <v>132.81</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J196" t="n">
+        <v>847</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>HIVE250815P00002000</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>-0.2792</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.502105</v>
+      </c>
+      <c r="O196" t="n">
+        <v>-0.006146</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>178.13</v>
+      </c>
+      <c r="I197" t="n">
+        <v>10</v>
+      </c>
+      <c r="J197" t="n">
+        <v>253</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>HIVE250815C00004000</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>0.1097</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.208992</v>
+      </c>
+      <c r="O197" t="n">
+        <v>-0.004709</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>167.97</v>
+      </c>
+      <c r="I198" t="n">
+        <v>4</v>
+      </c>
+      <c r="J198" t="n">
+        <v>592</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>HIVE250815C00003500</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>0.1666</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.295006</v>
+      </c>
+      <c r="O198" t="n">
+        <v>-0.005918</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>290.63</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>11</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>HIVE250815C00001000</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>0.9448</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.07611</v>
+      </c>
+      <c r="O199" t="n">
+        <v>-0.004651</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>3</v>
+      </c>
+      <c r="H200" t="n">
+        <v>125</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>78</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>HIVE250815P00003000</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>-0.8042</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.438603</v>
+      </c>
+      <c r="O200" t="n">
+        <v>-0.00448</v>
+      </c>
+    </row>
+    <row r="201"/>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H202" t="n">
+        <v>188.28</v>
+      </c>
+      <c r="I202" t="n">
+        <v>208</v>
+      </c>
+      <c r="J202" t="n">
+        <v>664</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>HIVE250822C00002500</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>0.5229</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.356071</v>
+      </c>
+      <c r="O202" t="n">
+        <v>-0.009023</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="n">
+        <v>128.13</v>
+      </c>
+      <c r="I203" t="n">
+        <v>80</v>
+      </c>
+      <c r="J203" t="n">
+        <v>14</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>HIVE250822C00002000</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>0.7107</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.449173</v>
+      </c>
+      <c r="O203" t="n">
+        <v>-0.005365</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>3</v>
+      </c>
+      <c r="H204" t="n">
+        <v>135.94</v>
+      </c>
+      <c r="I204" t="n">
+        <v>31</v>
+      </c>
+      <c r="J204" t="n">
+        <v>749</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>HIVE250822C00003000</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.413545</v>
+      </c>
+      <c r="O204" t="n">
+        <v>-0.005464</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>144.53</v>
+      </c>
+      <c r="I205" t="n">
+        <v>29</v>
+      </c>
+      <c r="J205" t="n">
+        <v>91</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>HIVE250822C00003500</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.296868</v>
+      </c>
+      <c r="O205" t="n">
+        <v>-0.004422</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>114.06</v>
+      </c>
+      <c r="I206" t="n">
+        <v>28</v>
+      </c>
+      <c r="J206" t="n">
+        <v>55</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>HIVE250822P00002000</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>-0.2793</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.496157</v>
+      </c>
+      <c r="O206" t="n">
+        <v>-0.004451</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>145.31</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>26</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>HIVE250822P00002500</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>-0.5218</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.461433</v>
+      </c>
+      <c r="O207" t="n">
+        <v>-0.00665</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>HIVE</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>HIVE Digital Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>606.25</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>6</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>HIVE250822C00001500</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>0.8547</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.063385</v>
+      </c>
+      <c r="O208" t="n">
+        <v>-0.016505</v>
+      </c>
+    </row>
+    <row r="209"/>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>135</v>
+      </c>
+      <c r="H210" t="n">
+        <v>94.09</v>
+      </c>
+      <c r="I210" t="n">
+        <v>122</v>
+      </c>
+      <c r="J210" t="n">
+        <v>154</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>TMDX250815C00135000</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.011285</v>
+      </c>
+      <c r="O210" t="n">
+        <v>-0.162275</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>165</v>
+      </c>
+      <c r="H211" t="n">
+        <v>126.42</v>
+      </c>
+      <c r="I211" t="n">
+        <v>80</v>
+      </c>
+      <c r="J211" t="n">
+        <v>83</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>TMDX250815C00165000</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.005237</v>
+      </c>
+      <c r="O211" t="n">
+        <v>-0.135174</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>130</v>
+      </c>
+      <c r="H212" t="n">
+        <v>92.72</v>
+      </c>
+      <c r="I212" t="n">
+        <v>58</v>
+      </c>
+      <c r="J212" t="n">
+        <v>333</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>TMDX250815C00130000</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>0.2177</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.013219</v>
+      </c>
+      <c r="O212" t="n">
+        <v>-0.184876</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>140</v>
+      </c>
+      <c r="H213" t="n">
+        <v>97.09</v>
+      </c>
+      <c r="I213" t="n">
+        <v>57</v>
+      </c>
+      <c r="J213" t="n">
+        <v>237</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>TMDX250815C00140000</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.009559</v>
+      </c>
+      <c r="O213" t="n">
+        <v>-0.146182</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>170</v>
+      </c>
+      <c r="H214" t="n">
+        <v>102.73</v>
+      </c>
+      <c r="I214" t="n">
+        <v>51</v>
+      </c>
+      <c r="J214" t="n">
+        <v>150</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>TMDX250815C00170000</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.002874</v>
+      </c>
+      <c r="O214" t="n">
+        <v>-0.04901</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>120</v>
+      </c>
+      <c r="H215" t="n">
+        <v>100.33</v>
+      </c>
+      <c r="I215" t="n">
+        <v>46</v>
+      </c>
+      <c r="J215" t="n">
+        <v>308</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>TMDX250815C00120000</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>0.3649</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.015602</v>
+      </c>
+      <c r="O215" t="n">
+        <v>-0.256164</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>180</v>
+      </c>
+      <c r="H216" t="n">
+        <v>114.06</v>
+      </c>
+      <c r="I216" t="n">
+        <v>42</v>
+      </c>
+      <c r="J216" t="n">
+        <v>49</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>TMDX250815C00180000</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.002507</v>
+      </c>
+      <c r="O216" t="n">
+        <v>-0.052647</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>145</v>
+      </c>
+      <c r="H217" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="I217" t="n">
+        <v>42</v>
+      </c>
+      <c r="J217" t="n">
+        <v>363</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>TMDX250815C00145000</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.008468</v>
+      </c>
+      <c r="O217" t="n">
+        <v>-0.160585</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>125</v>
+      </c>
+      <c r="H218" t="n">
+        <v>96.84999999999999</v>
+      </c>
+      <c r="I218" t="n">
+        <v>29</v>
+      </c>
+      <c r="J218" t="n">
+        <v>258</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>TMDX250815C00125000</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>0.2893</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.014703</v>
+      </c>
+      <c r="O218" t="n">
+        <v>-0.224615</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>160</v>
+      </c>
+      <c r="H219" t="n">
+        <v>101.76</v>
+      </c>
+      <c r="I219" t="n">
+        <v>20</v>
+      </c>
+      <c r="J219" t="n">
+        <v>373</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>TMDX250815C00160000</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.004464</v>
+      </c>
+      <c r="O219" t="n">
+        <v>-0.07474500000000001</v>
+      </c>
+    </row>
+    <row r="220"/>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>140</v>
+      </c>
+      <c r="H221" t="n">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="I221" t="n">
+        <v>79</v>
+      </c>
+      <c r="J221" t="n">
+        <v>88</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>TMDX250919C00140000</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.009731999999999999</v>
+      </c>
+      <c r="O221" t="n">
+        <v>-0.098452</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>120</v>
+      </c>
+      <c r="H222" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="I222" t="n">
+        <v>11</v>
+      </c>
+      <c r="J222" t="n">
+        <v>18</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>TMDX250919C00120000</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>0.4159</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.013041</v>
+      </c>
+      <c r="O222" t="n">
+        <v>-0.115158</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>80</v>
+      </c>
+      <c r="H223" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="I223" t="n">
+        <v>11</v>
+      </c>
+      <c r="J223" t="n">
+        <v>12</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>TMDX250919P00080000</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>-0.1109</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.006118</v>
+      </c>
+      <c r="O223" t="n">
+        <v>-0.053278</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>105</v>
+      </c>
+      <c r="H224" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="I224" t="n">
+        <v>6</v>
+      </c>
+      <c r="J224" t="n">
+        <v>16</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>TMDX250919C00105000</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>0.6066</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.012877</v>
+      </c>
+      <c r="O224" t="n">
+        <v>-0.115486</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>125</v>
+      </c>
+      <c r="H225" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="I225" t="n">
+        <v>5</v>
+      </c>
+      <c r="J225" t="n">
+        <v>70</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>TMDX250919C00125000</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>0.3615</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.012418</v>
+      </c>
+      <c r="O225" t="n">
+        <v>-0.111117</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>125</v>
+      </c>
+      <c r="H226" t="n">
+        <v>68.87</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4</v>
+      </c>
+      <c r="J226" t="n">
+        <v>20</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>TMDX250919P00125000</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>-0.6532</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.01301</v>
+      </c>
+      <c r="O226" t="n">
+        <v>-0.086172</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>120</v>
+      </c>
+      <c r="H227" t="n">
+        <v>69.67</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>6</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>TMDX250919P00120000</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>-0.592</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.013528</v>
+      </c>
+      <c r="O227" t="n">
+        <v>-0.09386700000000001</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>155</v>
+      </c>
+      <c r="H228" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>TMDX250919C00155000</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.007322</v>
+      </c>
+      <c r="O228" t="n">
+        <v>-0.07842399999999999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>100</v>
+      </c>
+      <c r="H229" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>16</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>TMDX250919C00100000</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>0.6693</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.011463</v>
+      </c>
+      <c r="O229" t="n">
+        <v>-0.115704</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>115</v>
+      </c>
+      <c r="H230" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>74</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>TMDX250919C00115000</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>0.4755</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.013433</v>
+      </c>
+      <c r="O230" t="n">
+        <v>-0.117118</v>
+      </c>
+    </row>
+    <row r="231"/>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>110</v>
+      </c>
+      <c r="H232" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="I232" t="n">
+        <v>31</v>
+      </c>
+      <c r="J232" t="n">
+        <v>165</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>TMDX251017P00110000</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>-0.4473</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.011983</v>
+      </c>
+      <c r="O232" t="n">
+        <v>-0.072089</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>85</v>
+      </c>
+      <c r="H233" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="I233" t="n">
+        <v>22</v>
+      </c>
+      <c r="J233" t="n">
+        <v>111</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>TMDX251017P00085000</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>-0.1681</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.007437</v>
+      </c>
+      <c r="O233" t="n">
+        <v>-0.04941</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>110</v>
+      </c>
+      <c r="H234" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I234" t="n">
+        <v>16</v>
+      </c>
+      <c r="J234" t="n">
+        <v>255</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>TMDX251017C00110000</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>0.5567</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.011302</v>
+      </c>
+      <c r="O234" t="n">
+        <v>-0.091562</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>130</v>
+      </c>
+      <c r="H235" t="n">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="I235" t="n">
+        <v>10</v>
+      </c>
+      <c r="J235" t="n">
+        <v>216</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>TMDX251017C00130000</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.010732</v>
+      </c>
+      <c r="O235" t="n">
+        <v>-0.083361</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>80</v>
+      </c>
+      <c r="H236" t="n">
+        <v>75.04000000000001</v>
+      </c>
+      <c r="I236" t="n">
+        <v>10</v>
+      </c>
+      <c r="J236" t="n">
+        <v>66</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>TMDX251017C00080000</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>0.8555</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.00595</v>
+      </c>
+      <c r="O236" t="n">
+        <v>-0.061888</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>150</v>
+      </c>
+      <c r="H237" t="n">
+        <v>69.20999999999999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>9</v>
+      </c>
+      <c r="J237" t="n">
+        <v>415</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>TMDX251017C00150000</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>0.2098</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.008170999999999999</v>
+      </c>
+      <c r="O237" t="n">
+        <v>-0.06529699999999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>70</v>
+      </c>
+      <c r="H238" t="n">
+        <v>79.98</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8</v>
+      </c>
+      <c r="J238" t="n">
+        <v>19</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>TMDX251017C00070000</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>0.9149</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.003822</v>
+      </c>
+      <c r="O238" t="n">
+        <v>-0.047124</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>170</v>
+      </c>
+      <c r="H239" t="n">
+        <v>81.38</v>
+      </c>
+      <c r="I239" t="n">
+        <v>8</v>
+      </c>
+      <c r="J239" t="n">
+        <v>7</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>TMDX251017P00170000</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>-0.8314</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.006072</v>
+      </c>
+      <c r="O239" t="n">
+        <v>-0.043436</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>180</v>
+      </c>
+      <c r="H240" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>113</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>TMDX251017C00180000</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="O240" t="n">
+        <v>-0.042209</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>160</v>
+      </c>
+      <c r="H241" t="n">
+        <v>70.22</v>
+      </c>
+      <c r="I241" t="n">
+        <v>6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>270</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>TMDX251017C00160000</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>0.1621</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.006861</v>
+      </c>
+      <c r="O241" t="n">
+        <v>-0.056203</v>
+      </c>
+    </row>
+    <row r="242"/>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>180</v>
+      </c>
+      <c r="H243" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="I243" t="n">
+        <v>49</v>
+      </c>
+      <c r="J243" t="n">
+        <v>128</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>TMDX251219C00180000</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>0.1865</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.005628</v>
+      </c>
+      <c r="O243" t="n">
+        <v>-0.046626</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>85</v>
+      </c>
+      <c r="H244" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="I244" t="n">
+        <v>21</v>
+      </c>
+      <c r="J244" t="n">
+        <v>277</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>TMDX251219C00085000</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>0.7865</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.005823</v>
+      </c>
+      <c r="O244" t="n">
+        <v>-0.057697</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>50</v>
+      </c>
+      <c r="H245" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>20</v>
+      </c>
+      <c r="J245" t="n">
+        <v>77</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>TMDX251219C00050000</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>0.9515</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.001614</v>
+      </c>
+      <c r="O245" t="n">
+        <v>-0.027566</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>160</v>
+      </c>
+      <c r="H246" t="n">
+        <v>61.63</v>
+      </c>
+      <c r="I246" t="n">
+        <v>15</v>
+      </c>
+      <c r="J246" t="n">
+        <v>38</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>TMDX251219P00160000</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>-0.7786999999999999</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.007098</v>
+      </c>
+      <c r="O246" t="n">
+        <v>-0.024351</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Put</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>135</v>
+      </c>
+      <c r="H247" t="n">
+        <v>65.01000000000001</v>
+      </c>
+      <c r="I247" t="n">
+        <v>15</v>
+      </c>
+      <c r="J247" t="n">
+        <v>46</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>TMDX251219P00135000</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>-0.6146</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.008661</v>
+      </c>
+      <c r="O247" t="n">
+        <v>-0.044872</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>165</v>
+      </c>
+      <c r="H248" t="n">
+        <v>68.62</v>
+      </c>
+      <c r="I248" t="n">
+        <v>11</v>
+      </c>
+      <c r="J248" t="n">
+        <v>20</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>TMDX251219C00165000</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>0.2359</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.006609</v>
+      </c>
+      <c r="O248" t="n">
+        <v>-0.052605</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>55</v>
+      </c>
+      <c r="H249" t="n">
+        <v>132.79</v>
+      </c>
+      <c r="I249" t="n">
+        <v>10</v>
+      </c>
+      <c r="J249" t="n">
+        <v>148</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>TMDX251219C00055000</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>0.8945</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.002023</v>
+      </c>
+      <c r="O249" t="n">
+        <v>-0.062002</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>200</v>
+      </c>
+      <c r="H250" t="n">
+        <v>71.23</v>
+      </c>
+      <c r="I250" t="n">
+        <v>10</v>
+      </c>
+      <c r="J250" t="n">
+        <v>801</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>TMDX251219C00200000</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>0.1341</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.004469</v>
+      </c>
+      <c r="O250" t="n">
+        <v>-0.037921</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>145</v>
+      </c>
+      <c r="H251" t="n">
+        <v>70.34</v>
+      </c>
+      <c r="I251" t="n">
+        <v>7</v>
+      </c>
+      <c r="J251" t="n">
+        <v>93</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>TMDX251219C00145000</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.007714</v>
+      </c>
+      <c r="O251" t="n">
+        <v>-0.065011</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>TMDX</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>TransMedics Group, Inc.</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>210</v>
+      </c>
+      <c r="H252" t="n">
+        <v>74.84</v>
+      </c>
+      <c r="I252" t="n">
+        <v>6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>102</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>TMDX251219C00210000</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.004121</v>
+      </c>
+      <c r="O252" t="n">
+        <v>-0.038492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
